--- a/2025/10/2025-10-24/24_fixtures.xlsx
+++ b/2025/10/2025-10-24/24_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,27 +488,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Riga FC  - FK Tukums 2000: 16:00</t>
+          <t>Bukovyna Chernivtsi ✓ - UCSA Tarasivka: 4:1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.62</v>
+        <v>1.75</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>Bukovyna Chernivtsi</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -522,30 +527,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al-Faisaly SC  - Al-Ahli (Amman): 17:30</t>
+          <t>Riga FC  - FK Tukums 2000: 0:0</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.21</v>
+        <v>3.42</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Faisaly SC</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -556,15 +561,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dunav Ruse  - Sportist Svoge: 17:00</t>
+          <t>Al-Faisaly SC  - Al-Ahli (Amman): 17:30</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.48</v>
+        <v>1.21</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Al-Faisaly SC</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -572,11 +577,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -590,32 +595,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LDU Quito - Sociedade Esportiva Palmeiras X: 3:0</t>
+          <t>Llanelli Town AFC - The New Saints ✓: 0:4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.4</v>
+        <v>2.41</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sociedade Esportiva Palmeiras</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -629,27 +634,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Llanelli Town AFC - The New Saints : 19:45</t>
+          <t>LDU Quito - Sociedade Esportiva Palmeiras X: 3:0</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Sociedade Esportiva Palmeiras</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>70%</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H6" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -663,7 +673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FC Aarau  - FC Wil 1900: 19:15</t>
+          <t>FC Aarau ✓ - FC Wil 1900: 2:0</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -682,11 +692,16 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -697,27 +712,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AC Milan  - Pisa Sporting Club: 19:45</t>
+          <t>Airbus UK Broughton ✓ - Y Rhyl 1879: 6:0</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.51</v>
+        <v>4.61</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Airbus UK Broughton</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -731,27 +751,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wydad Casablanca  - Asante Kotoko SC: 20:00</t>
+          <t>Dunav Ruse ✓ - Sportist Svoge: 4:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.79</v>
+        <v>1.45</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wydad Casablanca</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -765,27 +790,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Airbus UK Broughton  - Y Rhyl 1879: 20:00</t>
+          <t>Wydad Casablanca ✓ - Asante Kotoko SC: 5:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.33</v>
+        <v>0.79</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Airbus UK Broughton</t>
+          <t>Wydad Casablanca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>64%</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -799,15 +829,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Erbil SC - Al-Shorta SC : 15:00</t>
+          <t>AKAS Almaty - Kaspiy Aktau ✓: 1:2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Shorta SC</t>
+          <t>Kaspiy Aktau</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -815,14 +845,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -833,27 +868,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Al-Abbassieh FC - Nejmeh SC : 13:00</t>
+          <t>SC União Torreense ✓ - UD Oliveirense: 3:2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.77</v>
+        <v>2.69</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nejmeh SC</t>
+          <t>SC União Torreense</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -867,30 +907,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FCSB  - UTA Arad: 23:00</t>
+          <t>Erbil SC - Al-Shorta SC X: 1:0</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.55</v>
+        <v>2.73</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Al-Shorta SC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -901,27 +946,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SC União Torreense  - UD Oliveirense: 18:45</t>
+          <t>Al-Abbassieh FC - Nejmeh SC : 13:00</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.56</v>
+        <v>1.77</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SC União Torreense</t>
+          <t>Nejmeh SC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -935,15 +980,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AD Isidro Metapán  - CD Cacahuatique: 23:00</t>
+          <t>FCSB  - UTA Arad: 23:00</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AD Isidro Metapán</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -951,7 +996,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -969,30 +1014,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam U21  - FC Emmen: 19:00</t>
+          <t>Shakhter Karaganda ✓ - FC Turkistan: 3:0</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.77</v>
+        <v>3.51</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam U21</t>
+          <t>Shakhter Karaganda</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1003,27 +1053,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B71 Sandoy  - ÍF Fuglafjördur: 23:00</t>
+          <t>AC Milan  - Pisa Sporting Club: 2:2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.41</v>
+        <v>1.58</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>B71 Sandoy</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1037,15 +1087,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NSÍ Runavík  - KÍ Klaksvík: 23:00</t>
+          <t>HNK Gorica - HNK Hajduk Split ✓: 1:3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.8</v>
+        <v>2.08</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NSÍ Runavík</t>
+          <t>HNK Hajduk Split</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1053,35 +1103,337 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AD Isidro Metapán  - CD Cacahuatique: 23:00</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AD Isidro Metapán</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>23</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ajax Amsterdam U21 X - FC Emmen: 0:1</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ajax Amsterdam U21</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FK Sarajevo ✓ - FK Sloga Meridian: 1:0</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>FK Sarajevo</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B71 Sandoy  - ÍF Fuglafjördur: 23:00</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>B71 Sandoy</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>23</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FC Ekibastuz - Irtysh Pavlodar ✓: 1:2</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Irtysh Pavlodar</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Aarhus GF ✓ - FC Nordsjaelland: 1:0</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Aarhus GF</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>52%</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Örgryte IS - Västerås SK ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Västerås SK</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NSÍ Runavík  - KÍ Klaksvík: 23:00</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NSÍ Runavík</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>23</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="K19">
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="K27">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L19">
-        <f>(K19/K21)*100</f>
+      <c r="L27">
+        <f>(K27/K29)*100</f>
         <v/>
       </c>
     </row>
-    <row r="20">
-      <c r="K20">
+    <row r="28">
+      <c r="K28">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="21">
-      <c r="K21">
-        <f>K19+K20</f>
+    <row r="29">
+      <c r="K29">
+        <f>K27+K28</f>
         <v/>
       </c>
     </row>
